--- a/data_and_results/monthly data/!Template.xlsx
+++ b/data_and_results/monthly data/!Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA24071-CA13-4B62-BB46-7238DEA66AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BBDC58-1BE5-4441-A284-52AFF8FB37CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Jedzenie</t>
-  </si>
-  <si>
-    <t>Hobby i przyjemności</t>
   </si>
   <si>
     <t>Podróże</t>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>Praca2</t>
+  </si>
+  <si>
+    <t>Rozrywka</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
   <dimension ref="A1:Y140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -808,14 +808,14 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
         <v>-1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="9">
         <f>SUM(F1:K1)</f>
@@ -843,7 +843,7 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
@@ -851,7 +851,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -892,13 +892,13 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -944,16 +944,16 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:R8" si="0">100*B9/$A$9</f>
@@ -1179,46 +1179,46 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="H10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
